--- a/norgesbank_1915-1930.xlsx
+++ b/norgesbank_1915-1930.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Desktop/Forsgrens-map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175BB457-BB7D-C846-B586-D0F312429C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E873A535-225A-854F-B18A-7691091DA860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{CB9FB8AA-5060-8548-B361-E4C77A914B6A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{CB9FB8AA-5060-8548-B361-E4C77A914B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>år</t>
   </si>
   <si>
     <t>gjennomsnittlig arbeidsledighet</t>
-  </si>
-  <si>
-    <t>årlig innflasjons rate</t>
   </si>
   <si>
     <t>årlig realrente</t>
@@ -446,9 +443,6 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -462,9 +456,7 @@
       <c r="C3" s="2">
         <v>-9.2799999999999994</v>
       </c>
-      <c r="D3" s="2">
-        <v>14.44</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -476,9 +468,7 @@
       <c r="C4" s="2">
         <v>-12.8</v>
       </c>
-      <c r="D4" s="2">
-        <v>19.170000000000002</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -490,9 +480,7 @@
       <c r="C5" s="2">
         <v>-16.100000000000001</v>
       </c>
-      <c r="D5" s="2">
-        <v>24.24</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -504,9 +492,7 @@
       <c r="C6" s="2">
         <v>-24.95</v>
       </c>
-      <c r="D6" s="2">
-        <v>40.49</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -518,9 +504,7 @@
       <c r="C7" s="2">
         <v>-1.26</v>
       </c>
-      <c r="D7" s="2">
-        <v>6.94</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -532,9 +516,7 @@
       <c r="C8" s="2">
         <v>-8.09</v>
       </c>
-      <c r="D8" s="2">
-        <v>16.53</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -546,9 +528,7 @@
       <c r="C9" s="2">
         <v>12.61</v>
       </c>
-      <c r="D9" s="2">
-        <v>-7.3</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -560,9 +540,7 @@
       <c r="C10" s="2">
         <v>25.95</v>
       </c>
-      <c r="D10" s="2">
-        <v>-16.16</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -574,9 +552,7 @@
       <c r="C11" s="2">
         <v>12.75</v>
       </c>
-      <c r="D11" s="2">
-        <v>-6.02</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -588,9 +564,7 @@
       <c r="C12" s="2">
         <v>-4.79</v>
       </c>
-      <c r="D12" s="2">
-        <v>9.6199999999999992</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -602,9 +576,7 @@
       <c r="C13" s="2">
         <v>3.44</v>
       </c>
-      <c r="D13" s="2">
-        <v>1.75</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -616,9 +588,7 @@
       <c r="C14" s="2">
         <v>22.4</v>
       </c>
-      <c r="D14" s="2">
-        <v>-14.94</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -630,9 +600,7 @@
       <c r="C15" s="2">
         <v>17.850000000000001</v>
       </c>
-      <c r="D15" s="2">
-        <v>-10.14</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -644,9 +612,7 @@
       <c r="C16" s="2">
         <v>12.06</v>
       </c>
-      <c r="D16" s="2">
-        <v>-6.77</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -658,9 +624,7 @@
       <c r="C17" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D17" s="2">
-        <v>-4.03</v>
-      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -672,9 +636,7 @@
       <c r="C18" s="2">
         <v>7.06</v>
       </c>
-      <c r="D18" s="2">
-        <v>-3.36</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
